--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Plxnc1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H2">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I2">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J2">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.579861563185559</v>
+        <v>0.797948</v>
       </c>
       <c r="N2">
-        <v>0.579861563185559</v>
+        <v>1.595896</v>
       </c>
       <c r="O2">
-        <v>0.009567008642144832</v>
+        <v>0.01261277618392502</v>
       </c>
       <c r="P2">
-        <v>0.009567008642144832</v>
+        <v>0.008491586253039307</v>
       </c>
       <c r="Q2">
-        <v>26.57171336419015</v>
+        <v>37.747933160636</v>
       </c>
       <c r="R2">
-        <v>26.57171336419015</v>
+        <v>150.991732642544</v>
       </c>
       <c r="S2">
-        <v>0.005031855418840939</v>
+        <v>0.006365857669271112</v>
       </c>
       <c r="T2">
-        <v>0.005031855418840939</v>
+        <v>0.003492925971262949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H3">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I3">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J3">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.59265145484439</v>
+        <v>1.676017</v>
       </c>
       <c r="N3">
-        <v>1.59265145484439</v>
+        <v>5.028051</v>
       </c>
       <c r="O3">
-        <v>0.02627680674110299</v>
+        <v>0.02649198607108916</v>
       </c>
       <c r="P3">
-        <v>0.02627680674110299</v>
+        <v>0.02675370371952843</v>
       </c>
       <c r="Q3">
-        <v>72.9820368066767</v>
+        <v>79.286090938369</v>
       </c>
       <c r="R3">
-        <v>72.9820368066767</v>
+        <v>475.716545630214</v>
       </c>
       <c r="S3">
-        <v>0.01382052607411594</v>
+        <v>0.01337090345897071</v>
       </c>
       <c r="T3">
-        <v>0.01382052607411594</v>
+        <v>0.01100485866418278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H4">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I4">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J4">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.4065942766711</v>
+        <v>28.59504733333333</v>
       </c>
       <c r="N4">
-        <v>26.4065942766711</v>
+        <v>85.78514199999999</v>
       </c>
       <c r="O4">
-        <v>0.4356766023025412</v>
+        <v>0.4519880142366109</v>
       </c>
       <c r="P4">
-        <v>0.4356766023025412</v>
+        <v>0.4564532604394176</v>
       </c>
       <c r="Q4">
-        <v>1210.062019267917</v>
+        <v>1352.724658077831</v>
       </c>
       <c r="R4">
-        <v>1210.062019267917</v>
+        <v>8116.347948466988</v>
       </c>
       <c r="S4">
-        <v>0.2291480810941095</v>
+        <v>0.2281251427036228</v>
       </c>
       <c r="T4">
-        <v>0.2291480810941095</v>
+        <v>0.1877573165421055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H5">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I5">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J5">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.6248208532014</v>
+        <v>30.70138833333333</v>
       </c>
       <c r="N5">
-        <v>30.6248208532014</v>
+        <v>92.10416499999999</v>
       </c>
       <c r="O5">
-        <v>0.5052721966207601</v>
+        <v>0.4852819226116239</v>
       </c>
       <c r="P5">
-        <v>0.5052721966207601</v>
+        <v>0.4900760835052309</v>
       </c>
       <c r="Q5">
-        <v>1403.359031197822</v>
+        <v>1452.367766753468</v>
       </c>
       <c r="R5">
-        <v>1403.359031197822</v>
+        <v>8714.206600520811</v>
       </c>
       <c r="S5">
-        <v>0.265752518436718</v>
+        <v>0.2449290785602829</v>
       </c>
       <c r="T5">
-        <v>0.265752518436718</v>
+        <v>0.2015877162358875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H6">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I6">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J6">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.363977615845579</v>
+        <v>0.435936</v>
       </c>
       <c r="N6">
-        <v>0.363977615845579</v>
+        <v>1.307808</v>
       </c>
       <c r="O6">
-        <v>0.006005186784949236</v>
+        <v>0.006890628460144693</v>
       </c>
       <c r="P6">
-        <v>0.006005186784949236</v>
+        <v>0.006958701841733315</v>
       </c>
       <c r="Q6">
-        <v>16.67899632129109</v>
+        <v>20.622500451552</v>
       </c>
       <c r="R6">
-        <v>16.67899632129109</v>
+        <v>123.735002709312</v>
       </c>
       <c r="S6">
-        <v>0.003158482739514322</v>
+        <v>0.003477803727700767</v>
       </c>
       <c r="T6">
-        <v>0.003158482739514322</v>
+        <v>0.002862389860382791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.8242364232841</v>
+        <v>47.306257</v>
       </c>
       <c r="H7">
-        <v>45.8242364232841</v>
+        <v>94.612514</v>
       </c>
       <c r="I7">
-        <v>0.5259591171136273</v>
+        <v>0.5047150267666207</v>
       </c>
       <c r="J7">
-        <v>0.5259591171136273</v>
+        <v>0.41133963280568</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.04263457078643</v>
+        <v>1.05872</v>
       </c>
       <c r="N7">
-        <v>1.04263457078643</v>
+        <v>2.11744</v>
       </c>
       <c r="O7">
-        <v>0.01720219890850175</v>
+        <v>0.01673467243660627</v>
       </c>
       <c r="P7">
-        <v>0.01720219890850175</v>
+        <v>0.01126666424105051</v>
       </c>
       <c r="Q7">
-        <v>47.7779330748067</v>
+        <v>50.08408041104001</v>
       </c>
       <c r="R7">
-        <v>47.7779330748067</v>
+        <v>200.33632164416</v>
       </c>
       <c r="S7">
-        <v>0.009047653350328585</v>
+        <v>0.008446240646772362</v>
       </c>
       <c r="T7">
-        <v>0.009047653350328585</v>
+        <v>0.004634425531858604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H8">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I8">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J8">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.579861563185559</v>
+        <v>0.797948</v>
       </c>
       <c r="N8">
-        <v>0.579861563185559</v>
+        <v>1.595896</v>
       </c>
       <c r="O8">
-        <v>0.009567008642144832</v>
+        <v>0.01261277618392502</v>
       </c>
       <c r="P8">
-        <v>0.009567008642144832</v>
+        <v>0.008491586253039307</v>
       </c>
       <c r="Q8">
-        <v>1.878283953130999</v>
+        <v>2.742125959456</v>
       </c>
       <c r="R8">
-        <v>1.878283953130999</v>
+        <v>16.452755756736</v>
       </c>
       <c r="S8">
-        <v>0.0003556885157590685</v>
+        <v>0.0004624354794427181</v>
       </c>
       <c r="T8">
-        <v>0.0003556885157590685</v>
+        <v>0.0003806053276943237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H9">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I9">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J9">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.59265145484439</v>
+        <v>1.676017</v>
       </c>
       <c r="N9">
-        <v>1.59265145484439</v>
+        <v>5.028051</v>
       </c>
       <c r="O9">
-        <v>0.02627680674110299</v>
+        <v>0.02649198607108916</v>
       </c>
       <c r="P9">
-        <v>0.02627680674110299</v>
+        <v>0.02675370371952843</v>
       </c>
       <c r="Q9">
-        <v>5.158906643390806</v>
+        <v>5.759585492024</v>
       </c>
       <c r="R9">
-        <v>5.158906643390806</v>
+        <v>51.836269428216</v>
       </c>
       <c r="S9">
-        <v>0.0009769363380166703</v>
+        <v>0.000971303549791648</v>
       </c>
       <c r="T9">
-        <v>0.0009769363380166703</v>
+        <v>0.001199140168606708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H10">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I10">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J10">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.4065942766711</v>
+        <v>28.59504733333333</v>
       </c>
       <c r="N10">
-        <v>26.4065942766711</v>
+        <v>85.78514199999999</v>
       </c>
       <c r="O10">
-        <v>0.4356766023025412</v>
+        <v>0.4519880142366109</v>
       </c>
       <c r="P10">
-        <v>0.4356766023025412</v>
+        <v>0.4564532604394176</v>
       </c>
       <c r="Q10">
-        <v>85.53607522152701</v>
+        <v>98.26607949967466</v>
       </c>
       <c r="R10">
-        <v>85.53607522152701</v>
+        <v>884.394715497072</v>
       </c>
       <c r="S10">
-        <v>0.01619787018287914</v>
+        <v>0.01657171197030034</v>
       </c>
       <c r="T10">
-        <v>0.01619787018287914</v>
+        <v>0.0204589033885755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H11">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I11">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J11">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.6248208532014</v>
+        <v>30.70138833333333</v>
       </c>
       <c r="N11">
-        <v>30.6248208532014</v>
+        <v>92.10416499999999</v>
       </c>
       <c r="O11">
-        <v>0.5052721966207601</v>
+        <v>0.4852819226116239</v>
       </c>
       <c r="P11">
-        <v>0.5052721966207601</v>
+        <v>0.4900760835052309</v>
       </c>
       <c r="Q11">
-        <v>99.19972839736643</v>
+        <v>105.5044613686267</v>
       </c>
       <c r="R11">
-        <v>99.19972839736643</v>
+        <v>949.54015231764</v>
       </c>
       <c r="S11">
-        <v>0.0187853407886199</v>
+        <v>0.01779240155183304</v>
       </c>
       <c r="T11">
-        <v>0.0187853407886199</v>
+        <v>0.02196592754279543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H12">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I12">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J12">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.363977615845579</v>
+        <v>0.435936</v>
       </c>
       <c r="N12">
-        <v>0.363977615845579</v>
+        <v>1.307808</v>
       </c>
       <c r="O12">
-        <v>0.006005186784949236</v>
+        <v>0.006890628460144693</v>
       </c>
       <c r="P12">
-        <v>0.006005186784949236</v>
+        <v>0.006958701841733315</v>
       </c>
       <c r="Q12">
-        <v>1.178994019513684</v>
+        <v>1.498081857792</v>
       </c>
       <c r="R12">
-        <v>1.178994019513684</v>
+        <v>13.482736720128</v>
       </c>
       <c r="S12">
-        <v>0.0002232647689879896</v>
+        <v>0.000252638358848372</v>
       </c>
       <c r="T12">
-        <v>0.0002232647689879896</v>
+        <v>0.0003118992042095839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.23919375309575</v>
+        <v>3.436472</v>
       </c>
       <c r="H13">
-        <v>3.23919375309575</v>
+        <v>10.309416</v>
       </c>
       <c r="I13">
-        <v>0.03717865521644668</v>
+        <v>0.03666405180741192</v>
       </c>
       <c r="J13">
-        <v>0.03717865521644668</v>
+        <v>0.04482146401776199</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.04263457078643</v>
+        <v>1.05872</v>
       </c>
       <c r="N13">
-        <v>1.04263457078643</v>
+        <v>2.11744</v>
       </c>
       <c r="O13">
-        <v>0.01720219890850175</v>
+        <v>0.01673467243660627</v>
       </c>
       <c r="P13">
-        <v>0.01720219890850175</v>
+        <v>0.01126666424105051</v>
       </c>
       <c r="Q13">
-        <v>3.377295388453073</v>
+        <v>3.638261635840001</v>
       </c>
       <c r="R13">
-        <v>3.377295388453073</v>
+        <v>21.82956981504</v>
       </c>
       <c r="S13">
-        <v>0.0006395546221839221</v>
+        <v>0.0006135608971958005</v>
       </c>
       <c r="T13">
-        <v>0.0006395546221839221</v>
+        <v>0.0005049883858804513</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H14">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I14">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J14">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.579861563185559</v>
+        <v>0.797948</v>
       </c>
       <c r="N14">
-        <v>0.579861563185559</v>
+        <v>1.595896</v>
       </c>
       <c r="O14">
-        <v>0.009567008642144832</v>
+        <v>0.01261277618392502</v>
       </c>
       <c r="P14">
-        <v>0.009567008642144832</v>
+        <v>0.008491586253039307</v>
       </c>
       <c r="Q14">
-        <v>20.63764983431817</v>
+        <v>0.08163274022666667</v>
       </c>
       <c r="R14">
-        <v>20.63764983431817</v>
+        <v>0.48979644136</v>
       </c>
       <c r="S14">
-        <v>0.00390812849467604</v>
+        <v>1.376664526834154E-05</v>
       </c>
       <c r="T14">
-        <v>0.00390812849467604</v>
+        <v>1.133057208310004E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H15">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I15">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J15">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.59265145484439</v>
+        <v>1.676017</v>
       </c>
       <c r="N15">
-        <v>1.59265145484439</v>
+        <v>5.028051</v>
       </c>
       <c r="O15">
-        <v>0.02627680674110299</v>
+        <v>0.02649198607108916</v>
       </c>
       <c r="P15">
-        <v>0.02627680674110299</v>
+        <v>0.02675370371952843</v>
       </c>
       <c r="Q15">
-        <v>56.68350020068114</v>
+        <v>0.1714621258233333</v>
       </c>
       <c r="R15">
-        <v>56.68350020068114</v>
+        <v>1.54315913241</v>
       </c>
       <c r="S15">
-        <v>0.01073409056218614</v>
+        <v>2.891558284839361E-05</v>
       </c>
       <c r="T15">
-        <v>0.01073409056218614</v>
+        <v>3.569824994423398E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H16">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I16">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J16">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.4065942766711</v>
+        <v>28.59504733333333</v>
       </c>
       <c r="N16">
-        <v>26.4065942766711</v>
+        <v>85.78514199999999</v>
       </c>
       <c r="O16">
-        <v>0.4356766023025412</v>
+        <v>0.4519880142366109</v>
       </c>
       <c r="P16">
-        <v>0.4356766023025412</v>
+        <v>0.4564532604394176</v>
       </c>
       <c r="Q16">
-        <v>939.8278496077086</v>
+        <v>2.925368659024445</v>
       </c>
       <c r="R16">
-        <v>939.8278496077086</v>
+        <v>26.32831793122</v>
       </c>
       <c r="S16">
-        <v>0.1779741408846974</v>
+        <v>0.0004933377526723994</v>
       </c>
       <c r="T16">
-        <v>0.1779741408846974</v>
+        <v>0.0006090589456267655</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H17">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I17">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J17">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.6248208532014</v>
+        <v>30.70138833333333</v>
       </c>
       <c r="N17">
-        <v>30.6248208532014</v>
+        <v>92.10416499999999</v>
       </c>
       <c r="O17">
-        <v>0.5052721966207601</v>
+        <v>0.4852819226116239</v>
       </c>
       <c r="P17">
-        <v>0.5052721966207601</v>
+        <v>0.4900760835052309</v>
       </c>
       <c r="Q17">
-        <v>1089.957274517338</v>
+        <v>3.140854364461111</v>
       </c>
       <c r="R17">
-        <v>1089.957274517338</v>
+        <v>28.26768928015</v>
       </c>
       <c r="S17">
-        <v>0.2064039809143985</v>
+        <v>0.0005296775258921628</v>
       </c>
       <c r="T17">
-        <v>0.2064039809143985</v>
+        <v>0.0006539228625713954</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H18">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I18">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J18">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.363977615845579</v>
+        <v>0.435936</v>
       </c>
       <c r="N18">
-        <v>0.363977615845579</v>
+        <v>1.307808</v>
       </c>
       <c r="O18">
-        <v>0.006005186784949236</v>
+        <v>0.006890628460144693</v>
       </c>
       <c r="P18">
-        <v>0.006005186784949236</v>
+        <v>0.006958701841733315</v>
       </c>
       <c r="Q18">
-        <v>12.95419986467919</v>
+        <v>0.04459770592000001</v>
       </c>
       <c r="R18">
-        <v>12.95419986467919</v>
+        <v>0.4013793532800001</v>
       </c>
       <c r="S18">
-        <v>0.002453122231616441</v>
+        <v>7.521011734724243E-06</v>
       </c>
       <c r="T18">
-        <v>0.002453122231616441</v>
+        <v>9.28519954612011E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>35.5906498112102</v>
+        <v>0.1023033333333333</v>
       </c>
       <c r="H19">
-        <v>35.5906498112102</v>
+        <v>0.30691</v>
       </c>
       <c r="I19">
-        <v>0.4085005711670263</v>
+        <v>0.001091484148104295</v>
       </c>
       <c r="J19">
-        <v>0.4085005711670263</v>
+        <v>0.001334329269639651</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.04263457078643</v>
+        <v>1.05872</v>
       </c>
       <c r="N19">
-        <v>1.04263457078643</v>
+        <v>2.11744</v>
       </c>
       <c r="O19">
-        <v>0.01720219890850175</v>
+        <v>0.01673467243660627</v>
       </c>
       <c r="P19">
-        <v>0.01720219890850175</v>
+        <v>0.01126666424105051</v>
       </c>
       <c r="Q19">
-        <v>37.10804188992128</v>
+        <v>0.1083105850666667</v>
       </c>
       <c r="R19">
-        <v>37.10804188992128</v>
+        <v>0.6498635104000001</v>
       </c>
       <c r="S19">
-        <v>0.007027108079451761</v>
+        <v>1.826562968827362E-05</v>
       </c>
       <c r="T19">
-        <v>0.007027108079451761</v>
+        <v>1.503343986803611E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>2.47101192974295</v>
+        <v>0.269007</v>
       </c>
       <c r="H20">
-        <v>2.47101192974295</v>
+        <v>0.807021</v>
       </c>
       <c r="I20">
-        <v>0.02836165650289956</v>
+        <v>0.002870061675042444</v>
       </c>
       <c r="J20">
-        <v>0.02836165650289956</v>
+        <v>0.003508623836023136</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.579861563185559</v>
+        <v>0.797948</v>
       </c>
       <c r="N20">
-        <v>0.579861563185559</v>
+        <v>1.595896</v>
       </c>
       <c r="O20">
-        <v>0.009567008642144832</v>
+        <v>0.01261277618392502</v>
       </c>
       <c r="P20">
-        <v>0.009567008642144832</v>
+        <v>0.008491586253039307</v>
       </c>
       <c r="Q20">
-        <v>1.432844840230912</v>
+        <v>0.214653597636</v>
       </c>
       <c r="R20">
-        <v>1.432844840230912</v>
+        <v>1.287921585816</v>
       </c>
       <c r="S20">
-        <v>0.0002713362128687833</v>
+        <v>3.619944554137128E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002713362128687833</v>
+        <v>2.97937819330601E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>2.47101192974295</v>
+        <v>0.269007</v>
       </c>
       <c r="H21">
-        <v>2.47101192974295</v>
+        <v>0.807021</v>
       </c>
       <c r="I21">
-        <v>0.02836165650289956</v>
+        <v>0.002870061675042444</v>
       </c>
       <c r="J21">
-        <v>0.02836165650289956</v>
+        <v>0.003508623836023136</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.59265145484439</v>
+        <v>1.676017</v>
       </c>
       <c r="N21">
-        <v>1.59265145484439</v>
+        <v>5.028051</v>
       </c>
       <c r="O21">
-        <v>0.02627680674110299</v>
+        <v>0.02649198607108916</v>
       </c>
       <c r="P21">
-        <v>0.02627680674110299</v>
+        <v>0.02675370371952843</v>
       </c>
       <c r="Q21">
-        <v>3.935460744842953</v>
+        <v>0.4508603051189999</v>
       </c>
       <c r="R21">
-        <v>3.935460744842953</v>
+        <v>4.057742746071</v>
       </c>
       <c r="S21">
-        <v>0.0007452537667842388</v>
+        <v>7.603363391839124E-05</v>
       </c>
       <c r="T21">
-        <v>0.0007452537667842388</v>
+        <v>9.386868257223828E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.47101192974295</v>
+        <v>0.269007</v>
       </c>
       <c r="H22">
-        <v>2.47101192974295</v>
+        <v>0.807021</v>
       </c>
       <c r="I22">
-        <v>0.02836165650289956</v>
+        <v>0.002870061675042444</v>
       </c>
       <c r="J22">
-        <v>0.02836165650289956</v>
+        <v>0.003508623836023136</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.4065942766711</v>
+        <v>28.59504733333333</v>
       </c>
       <c r="N22">
-        <v>26.4065942766711</v>
+        <v>85.78514199999999</v>
       </c>
       <c r="O22">
-        <v>0.4356766023025412</v>
+        <v>0.4519880142366109</v>
       </c>
       <c r="P22">
-        <v>0.4356766023025412</v>
+        <v>0.4564532604394176</v>
       </c>
       <c r="Q22">
-        <v>65.2510094815362</v>
+        <v>7.692267897997999</v>
       </c>
       <c r="R22">
-        <v>65.2510094815362</v>
+        <v>69.230411081982</v>
       </c>
       <c r="S22">
-        <v>0.01235651014085505</v>
+        <v>0.001297233477239035</v>
       </c>
       <c r="T22">
-        <v>0.01235651014085505</v>
+        <v>0.001601522789608217</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.47101192974295</v>
+        <v>0.269007</v>
       </c>
       <c r="H23">
-        <v>2.47101192974295</v>
+        <v>0.807021</v>
       </c>
       <c r="I23">
-        <v>0.02836165650289956</v>
+        <v>0.002870061675042444</v>
       </c>
       <c r="J23">
-        <v>0.02836165650289956</v>
+        <v>0.003508623836023136</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>30.6248208532014</v>
+        <v>30.70138833333333</v>
       </c>
       <c r="N23">
-        <v>30.6248208532014</v>
+        <v>92.10416499999999</v>
       </c>
       <c r="O23">
-        <v>0.5052721966207601</v>
+        <v>0.4852819226116239</v>
       </c>
       <c r="P23">
-        <v>0.5052721966207601</v>
+        <v>0.4900760835052309</v>
       </c>
       <c r="Q23">
-        <v>75.67429767450133</v>
+        <v>8.258888371385</v>
       </c>
       <c r="R23">
-        <v>75.67429767450133</v>
+        <v>74.329995342465</v>
       </c>
       <c r="S23">
-        <v>0.01433035648102353</v>
+        <v>0.001392789047678535</v>
       </c>
       <c r="T23">
-        <v>0.01433035648102353</v>
+        <v>0.001719492628051318</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.47101192974295</v>
+        <v>0.269007</v>
       </c>
       <c r="H24">
-        <v>2.47101192974295</v>
+        <v>0.807021</v>
       </c>
       <c r="I24">
-        <v>0.02836165650289956</v>
+        <v>0.002870061675042444</v>
       </c>
       <c r="J24">
-        <v>0.02836165650289956</v>
+        <v>0.003508623836023136</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.363977615845579</v>
+        <v>0.435936</v>
       </c>
       <c r="N24">
-        <v>0.363977615845579</v>
+        <v>1.307808</v>
       </c>
       <c r="O24">
-        <v>0.006005186784949236</v>
+        <v>0.006890628460144693</v>
       </c>
       <c r="P24">
-        <v>0.006005186784949236</v>
+        <v>0.006958701841733315</v>
       </c>
       <c r="Q24">
-        <v>0.8993930309138223</v>
+        <v>0.117269835552</v>
       </c>
       <c r="R24">
-        <v>0.8993930309138223</v>
+        <v>1.055428519968</v>
       </c>
       <c r="S24">
-        <v>0.000170317044830482</v>
+        <v>1.977652866041801E-05</v>
       </c>
       <c r="T24">
-        <v>0.000170317044830482</v>
+        <v>2.441546714968361E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.269007</v>
+      </c>
+      <c r="H25">
+        <v>0.807021</v>
+      </c>
+      <c r="I25">
+        <v>0.002870061675042444</v>
+      </c>
+      <c r="J25">
+        <v>0.003508623836023136</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.05872</v>
+      </c>
+      <c r="N25">
+        <v>2.11744</v>
+      </c>
+      <c r="O25">
+        <v>0.01673467243660627</v>
+      </c>
+      <c r="P25">
+        <v>0.01126666424105051</v>
+      </c>
+      <c r="Q25">
+        <v>0.28480309104</v>
+      </c>
+      <c r="R25">
+        <v>1.70881854624</v>
+      </c>
+      <c r="S25">
+        <v>4.802954200469279E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.953048670861935E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H26">
+        <v>116.236845</v>
+      </c>
+      <c r="I26">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J26">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.797948</v>
+      </c>
+      <c r="N26">
+        <v>1.595896</v>
+      </c>
+      <c r="O26">
+        <v>0.01261277618392502</v>
+      </c>
+      <c r="P26">
+        <v>0.008491586253039307</v>
+      </c>
+      <c r="Q26">
+        <v>30.91698599802</v>
+      </c>
+      <c r="R26">
+        <v>185.50191598812</v>
+      </c>
+      <c r="S26">
+        <v>0.005213878375504868</v>
+      </c>
+      <c r="T26">
+        <v>0.004291257863818795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H27">
+        <v>116.236845</v>
+      </c>
+      <c r="I27">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J27">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.676017</v>
+      </c>
+      <c r="N27">
+        <v>5.028051</v>
+      </c>
+      <c r="O27">
+        <v>0.02649198607108916</v>
+      </c>
+      <c r="P27">
+        <v>0.02675370371952843</v>
+      </c>
+      <c r="Q27">
+        <v>64.93830941545498</v>
+      </c>
+      <c r="R27">
+        <v>584.4447847390949</v>
+      </c>
+      <c r="S27">
+        <v>0.01095127601457556</v>
+      </c>
+      <c r="T27">
+        <v>0.01352009366113578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H28">
+        <v>116.236845</v>
+      </c>
+      <c r="I28">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J28">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>28.59504733333333</v>
+      </c>
+      <c r="N28">
+        <v>85.78514199999999</v>
+      </c>
+      <c r="O28">
+        <v>0.4519880142366109</v>
+      </c>
+      <c r="P28">
+        <v>0.4564532604394176</v>
+      </c>
+      <c r="Q28">
+        <v>1107.93269488411</v>
+      </c>
+      <c r="R28">
+        <v>9971.394253956989</v>
+      </c>
+      <c r="S28">
+        <v>0.1868431262911929</v>
+      </c>
+      <c r="T28">
+        <v>0.2306705231458139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H29">
+        <v>116.236845</v>
+      </c>
+      <c r="I29">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J29">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>30.70138833333333</v>
+      </c>
+      <c r="N29">
+        <v>92.10416499999999</v>
+      </c>
+      <c r="O29">
+        <v>0.4852819226116239</v>
+      </c>
+      <c r="P29">
+        <v>0.4900760835052309</v>
+      </c>
+      <c r="Q29">
+        <v>1189.544172328825</v>
+      </c>
+      <c r="R29">
+        <v>10705.89755095942</v>
+      </c>
+      <c r="S29">
+        <v>0.2006061857779506</v>
+      </c>
+      <c r="T29">
+        <v>0.2476619543796799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H30">
+        <v>116.236845</v>
+      </c>
+      <c r="I30">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J30">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.435936</v>
+      </c>
+      <c r="N30">
+        <v>1.307808</v>
+      </c>
+      <c r="O30">
+        <v>0.006890628460144693</v>
+      </c>
+      <c r="P30">
+        <v>0.006958701841733315</v>
+      </c>
+      <c r="Q30">
+        <v>16.89060842064</v>
+      </c>
+      <c r="R30">
+        <v>152.01547578576</v>
+      </c>
+      <c r="S30">
+        <v>0.002848452886032787</v>
+      </c>
+      <c r="T30">
+        <v>0.003516608453411206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>38.74561499999999</v>
+      </c>
+      <c r="H31">
+        <v>116.236845</v>
+      </c>
+      <c r="I31">
+        <v>0.4133807101207389</v>
+      </c>
+      <c r="J31">
+        <v>0.5053540923856091</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.05872</v>
+      </c>
+      <c r="N31">
+        <v>2.11744</v>
+      </c>
+      <c r="O31">
+        <v>0.01673467243660627</v>
+      </c>
+      <c r="P31">
+        <v>0.01126666424105051</v>
+      </c>
+      <c r="Q31">
+        <v>41.0207575128</v>
+      </c>
+      <c r="R31">
+        <v>246.1245450768</v>
+      </c>
+      <c r="S31">
+        <v>0.006917790775482255</v>
+      </c>
+      <c r="T31">
+        <v>0.00569365488174948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.8689935</v>
+      </c>
+      <c r="H32">
+        <v>7.737987</v>
+      </c>
+      <c r="I32">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J32">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.797948</v>
+      </c>
+      <c r="N32">
+        <v>1.595896</v>
+      </c>
+      <c r="O32">
+        <v>0.01261277618392502</v>
+      </c>
+      <c r="P32">
+        <v>0.008491586253039307</v>
+      </c>
+      <c r="Q32">
+        <v>3.087255625338</v>
+      </c>
+      <c r="R32">
+        <v>12.349022501352</v>
+      </c>
+      <c r="S32">
+        <v>0.0005206385688966067</v>
+      </c>
+      <c r="T32">
+        <v>0.000285672736247079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.8689935</v>
+      </c>
+      <c r="H33">
+        <v>7.737987</v>
+      </c>
+      <c r="I33">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J33">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.676017</v>
+      </c>
+      <c r="N33">
+        <v>5.028051</v>
+      </c>
+      <c r="O33">
+        <v>0.02649198607108916</v>
+      </c>
+      <c r="P33">
+        <v>0.02675370371952843</v>
+      </c>
+      <c r="Q33">
+        <v>6.4844988788895</v>
+      </c>
+      <c r="R33">
+        <v>38.906993273337</v>
+      </c>
+      <c r="S33">
+        <v>0.001093553830984455</v>
+      </c>
+      <c r="T33">
+        <v>0.0009000442930866811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.8689935</v>
+      </c>
+      <c r="H34">
+        <v>7.737987</v>
+      </c>
+      <c r="I34">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J34">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>28.59504733333333</v>
+      </c>
+      <c r="N34">
+        <v>85.78514199999999</v>
+      </c>
+      <c r="O34">
+        <v>0.4519880142366109</v>
+      </c>
+      <c r="P34">
+        <v>0.4564532604394176</v>
+      </c>
+      <c r="Q34">
+        <v>110.634052264859</v>
+      </c>
+      <c r="R34">
+        <v>663.8043135891539</v>
+      </c>
+      <c r="S34">
+        <v>0.0186574620415834</v>
+      </c>
+      <c r="T34">
+        <v>0.01535593562768766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.47101192974295</v>
-      </c>
-      <c r="H25">
-        <v>2.47101192974295</v>
-      </c>
-      <c r="I25">
-        <v>0.02836165650289956</v>
-      </c>
-      <c r="J25">
-        <v>0.02836165650289956</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.04263457078643</v>
-      </c>
-      <c r="N25">
-        <v>1.04263457078643</v>
-      </c>
-      <c r="O25">
-        <v>0.01720219890850175</v>
-      </c>
-      <c r="P25">
-        <v>0.01720219890850175</v>
-      </c>
-      <c r="Q25">
-        <v>2.576362462775689</v>
-      </c>
-      <c r="R25">
-        <v>2.576362462775689</v>
-      </c>
-      <c r="S25">
-        <v>0.0004878828565374805</v>
-      </c>
-      <c r="T25">
-        <v>0.0004878828565374805</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.8689935</v>
+      </c>
+      <c r="H35">
+        <v>7.737987</v>
+      </c>
+      <c r="I35">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J35">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>30.70138833333333</v>
+      </c>
+      <c r="N35">
+        <v>92.10416499999999</v>
+      </c>
+      <c r="O35">
+        <v>0.4852819226116239</v>
+      </c>
+      <c r="P35">
+        <v>0.4900760835052309</v>
+      </c>
+      <c r="Q35">
+        <v>118.7834719026425</v>
+      </c>
+      <c r="R35">
+        <v>712.700831415855</v>
+      </c>
+      <c r="S35">
+        <v>0.02003179014798664</v>
+      </c>
+      <c r="T35">
+        <v>0.0164870698562453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.8689935</v>
+      </c>
+      <c r="H36">
+        <v>7.737987</v>
+      </c>
+      <c r="I36">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J36">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.435936</v>
+      </c>
+      <c r="N36">
+        <v>1.307808</v>
+      </c>
+      <c r="O36">
+        <v>0.006890628460144693</v>
+      </c>
+      <c r="P36">
+        <v>0.006958701841733315</v>
+      </c>
+      <c r="Q36">
+        <v>1.686633550416</v>
+      </c>
+      <c r="R36">
+        <v>10.119801302496</v>
+      </c>
+      <c r="S36">
+        <v>0.0002844359471676239</v>
+      </c>
+      <c r="T36">
+        <v>0.0002341036570339295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.8689935</v>
+      </c>
+      <c r="H37">
+        <v>7.737987</v>
+      </c>
+      <c r="I37">
+        <v>0.04127866548208161</v>
+      </c>
+      <c r="J37">
+        <v>0.03364185768528596</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.05872</v>
+      </c>
+      <c r="N37">
+        <v>2.11744</v>
+      </c>
+      <c r="O37">
+        <v>0.01673467243660627</v>
+      </c>
+      <c r="P37">
+        <v>0.01126666424105051</v>
+      </c>
+      <c r="Q37">
+        <v>4.096180798320001</v>
+      </c>
+      <c r="R37">
+        <v>16.38472319328</v>
+      </c>
+      <c r="S37">
+        <v>0.0006907849454628817</v>
+      </c>
+      <c r="T37">
+        <v>0.0003790315149853218</v>
       </c>
     </row>
   </sheetData>
